--- a/docs/5u24/doc/_downloads/nablarch5u8-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u8-releasenote.xlsx
@@ -1,80 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98965AAB-40AE-4198-A8B0-9224BB4EE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="750" windowWidth="20955" windowHeight="12105" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3510" windowWidth="28800" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u8" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId3"/>
+    <sheet name="5u8" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u8'!$A$4:$N$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u8'!$A$1:$N$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u8'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u8'!$A$1:$N$24</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u8'!$5:$5</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u8'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u8'!$A$1:$L$24</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u8'!$5:$5</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u8'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u8'!$C$5:$L$24</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u8'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u8'!$A$1:$N$24</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u8'!$5:$5</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$E$1:$E$24</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$E$1:$E$24</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u8'!$A$1:$N$24</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u8'!$5:$5</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$E$1:$E$24</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$E$1:$E$24</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u8'!$A$1:$N$24</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u8'!$5:$5</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u8'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u8'!$C$5:$L$24</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u8'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u8'!$A$5:$N$24</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u8'!$A$1:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u8'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="244">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="176">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -83,237 +44,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションへの影響内容と対処</t>
@@ -326,15 +71,15 @@
     <rPh sb="15" eb="17">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>リリース
@@ -342,25 +87,25 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -370,15 +115,15 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
@@ -391,30 +136,30 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>GitHub issue</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>■Nablarch 5u8 リリースノート</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u8に書き換える</t>
@@ -427,80 +172,80 @@
     <rPh sb="68" eb="69">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>nablarch-mail-sender/issues/3</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール送信</t>
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>汎用データフォーマット</t>
     <rPh sb="0" eb="2">
       <t>ハンヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>セッションストア</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-web/issues/15</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSPカスタムタグ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-web-tag/issues/10
 nablarch-fw-web-tag/issues/9
 nablarch-fw-web-tag/issues/12</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/40</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ウェブアプリケーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-document/issues/18</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSPで自動的にHTTPセッションを作成しないようにする方法を追記しました。</t>
     <rPh sb="31" eb="33">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSPで自動的にHTTPセッションを作成しないようにする方法を追記</t>
     <rPh sb="31" eb="33">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSPで自動的にHTTPセッションを作成しないように変更</t>
@@ -513,7 +258,7 @@
     <rPh sb="26" eb="28">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">JSPで自動的にHTTPセッションを作成しないように、すべてのJSPにpageディレクティブのsession属性（=false）を指定しました。
@@ -543,15 +288,15 @@
     <rPh sb="137" eb="140">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:セッションストア:セッション変数に値が存在しない場合の遷移先画面を指定する</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-document/issues/20</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>HIDDENストアの特徴にある誤った内容を削除</t>
@@ -567,7 +312,7 @@
     <rPh sb="21" eb="23">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">HIDDENストアの特徴に「ブラウザの戻るボタンによる操作を許容している画面では使用できない。」と記載していましたが、これは誤りであるため削除しました。
@@ -584,15 +329,15 @@
     <rPh sb="69" eb="71">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:様々なフォーマットのデータへのアクセス:汎用データフォーマット:フォーマット定義ファイルの記述ルール</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/22
@@ -600,24 +345,24 @@
 nablarch-core-dataformat/issues/25
 nablarch-core-dataformat/issues/28
 nablarch-core-dataformat/issues/20</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/31</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/25
 nablarch-core-dataformat/issues/28</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>固定長のバイナリ型で、出力対象のバイト長を考慮しない問題を修正</t>
@@ -645,16 +390,16 @@
     <rPh sb="29" eb="31">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/22</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/19
 nablarch-core-dataformat/issues/22</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>常駐バッチを実行すると、処理したレコードを削除する実装になっていましたが、ステータスのカラムを用意し、処理後はステータスを更新する実装に変更しました。</t>
@@ -691,15 +436,15 @@
     <rPh sb="68" eb="70">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:様々なフォーマットのデータへのアクセス:汎用データフォーマット:フォーマット定義ファイルの記述ルール</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat/issues/37</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">常駐バッチ実行時にレコードを削除しないように変更
@@ -719,7 +464,7 @@
     <rPh sb="22" eb="24">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テスト時にコンバータの設定をデフォルトに戻せない問題に対応</t>
@@ -735,7 +480,7 @@
     <rPh sb="27" eb="29">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>配列やコレクションの要素にnullが格納された場合の挙動を修正</t>
@@ -757,7 +502,7 @@
     <rPh sb="29" eb="31">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テンプレートの置き換え文字にnullが指定された場合の挙動を修正</t>
@@ -782,7 +527,7 @@
     <rPh sb="30" eb="32">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>書き込み時の値にnullが指定された場合の挙動を修正</t>
@@ -804,11 +549,11 @@
     <rPh sb="18" eb="20">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">セッション変数が存在しない場合、専用例外(SessionKeyNotFoundException)を送出するように変更しました。
@@ -875,7 +620,7 @@
     <rPh sb="212" eb="214">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>セッションストアにセッション変数が存在しない場合に送出していた例外を専用例外に変更</t>
@@ -903,7 +648,7 @@
     <rPh sb="39" eb="41">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">テンプレートの置き換え文字にnullが指定された場合、NullPointerExceptionが発生していました。これを、空文字列で置き換えるように修正しました。
@@ -981,7 +726,7 @@
     <rPh sb="155" eb="157">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">各スコープ(セッションスコープやリクエストスコープ等)やリクエストパラメータから取得した配列やコレクションの要素にnullが格納されていた場合、NullPointerExceptionが発生していました。このため、nullを空文字列として扱うように修正しました。
@@ -1019,7 +764,7 @@
     <rPh sb="124" eb="126">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>概要欄の通り、例外が送出されなくなりました。アプリケーションで例外をハンドリングしている場合は、処理を見直してください。</t>
@@ -1050,7 +795,7 @@
     <rPh sb="51" eb="53">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">コンバータ設定をデフォルトから差し替えてテストを行うと、続くテストでコンバータ設定をデフォルトに戻せない状態でした。以下のコンバータ設定が対象です。
@@ -1102,7 +847,7 @@
     <rPh sb="237" eb="239">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>概要欄の通り、例外メッセージを変更しています。アプリケーションで例外メッセージを処理している場合は、処理を見直してください。</t>
@@ -1127,7 +872,7 @@
     <rPh sb="53" eb="55">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">required-decimal-pointディレクティブの指定が符号なし数値で有効にならない問題に対応
@@ -1138,7 +883,7 @@
     <rPh sb="50" eb="52">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>required-decimal-pointディレクティブをフォーマット定義ファイルに指定し、符号なし数値でも設定が有効となるように修正しました。</t>
@@ -1163,7 +908,7 @@
     <rPh sb="66" eb="68">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>マルチレイアウトの識別項目がnullの場合の挙動を修正</t>
@@ -1182,7 +927,7 @@
     <rPh sb="25" eb="27">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">固定長のバイナリ型データの出力において、指定したバイト長に関係なく出力していたため、不正なバイト長のデータを出力すると、バイト長の正しくない出力結果が得られる問題がありました。
@@ -1266,7 +1011,7 @@
     <rPh sb="147" eb="149">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">固定長で出力時にバイト長の異なるバイナリデータを書き込むことを想定している場合、影響を受けます。
@@ -1323,7 +1068,7 @@
     <rPh sb="78" eb="80">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データタイプ・コンバータの初期化時にnullが指定された場合に適切な例外を送出するように変更</t>
@@ -1351,7 +1096,7 @@
     <rPh sb="44" eb="46">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">汎用データフォーマットのデータタイプ・コンバータの初期化において、パラメータが必須のものにnullを指定した場合、NullPointerExceptionが発生し、原因の特定が難しい状況でした。これを、適切なメッセージを指定した例外を送出するように修正しました。
@@ -1401,7 +1146,7 @@
     <rPh sb="124" eb="126">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>例外メッセージの不統一を修正</t>
@@ -1414,7 +1159,7 @@
     <rPh sb="12" eb="14">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">初期化時の例外メッセージに含まれる自身のクラス名の表記が統一されていなかったため、以下のクラスを修正しました。
@@ -1471,11 +1216,11 @@
     <rPh sb="162" eb="164">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Bean Validation</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>エラーメッセージに含まれるプロパティ名が誤っていた問題を修正</t>
@@ -1494,7 +1239,7 @@
     <rPh sb="28" eb="30">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">InjectForm#prefixを指定しなかった場合に、エラーメッセージのプロパティ名の先頭に余計なドット(.)が含まれていました。このため、先頭に余計なドット(.)が付加されないように修正しました。
@@ -1536,7 +1281,7 @@
     <rPh sb="132" eb="134">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>概要欄の通り、エラーメッセージのプロパティ名が変わりました。アプリケーションで先頭にドット(.)が付くことを想定して処理している場合は、処理を見直してください。</t>
@@ -1567,7 +1312,7 @@
     <rPh sb="71" eb="73">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1674,40 +1419,40 @@
     <rPh sb="165" eb="167">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u7からの変更点を記載しています。</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク:ウェブアプリケーション編:機能詳細:JSPによる画面の作成:JSPで自動的にHTTPセッションを作成しないようにする方法
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:セッションストア:セッションストアの特長と選択基準</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-validation-ee/issues/6</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-batch/issues/1</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarchバッチアプリケーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>DatabaseRecordReaderに任意の処理を追加できる拡張ポイントを追加</t>
@@ -1717,7 +1462,7 @@
     <rPh sb="39" eb="41">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">DatabaseRecordReaderに、以下のタイミングで任意の処理を追加できるようになりました。
@@ -1754,7 +1499,7 @@
     <rPh sb="156" eb="158">
       <t>ジツゲン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>常駐バッチをマルチプロセスで起動しても動作するように変更</t>
@@ -1770,7 +1515,7 @@
     <rPh sb="26" eb="28">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テーブルをキューとしたメッセージングをマルチプロセスで起動しても動作するように変更</t>
@@ -1783,7 +1528,7 @@
     <rPh sb="39" eb="41">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>マルチプロセス化の方法を追記</t>
@@ -1796,7 +1541,7 @@
     <rPh sb="12" eb="14">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>機能詳細に、常駐バッチをマルチプロセスで起動させるための手順を追記しました。</t>
@@ -1818,7 +1563,7 @@
     <rPh sb="31" eb="33">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>機能詳細に、テーブルをキューとしたメッセージングのマルチプロセスで起動させるための手順を追記しました。</t>
@@ -1837,33 +1582,33 @@
     <rPh sb="44" eb="46">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-document/issues/25</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-document/issues/17</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarchバッチアプリケーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テーブルをキューとして使ったメッセージング</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク:バッチアプリケーション編:Nablarchバッチアプリケーション:機能詳細:常駐バッチアプリケーションのマルチプロセス化
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク:メッセージング編:テーブルをキューとして使ったメッセージング:機能詳細:マルチプロセス化
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">これまでは、常駐バッチのExampleをマルチプロセスで起動した場合に、プロセス間で同一データを処理してしまい、データを二重に取り込んでしまう可能性がありました。
@@ -1935,7 +1680,7 @@
     <rPh sb="133" eb="135">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">これまでは、テーブルをキューとしたメッセージングのExampleをマルチプロセスで起動した場合に、プロセス間で同一データを処理してしまい、データを二重に取り込んでしまう可能性がありました。
@@ -2004,14 +1749,14 @@
     <rPh sb="146" eb="148">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール送信</t>
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール送信機能のマルチプロセス化に対応</t>
@@ -2027,23 +1772,23 @@
     <rPh sb="17" eb="19">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:メール送信:メール送信をマルチプロセス化する</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-mail-sender/issues/5</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">メール送信バッチ（MailSender)をマルチプロセスで実行可能になりました。
@@ -2098,7 +1843,7 @@
     <rPh sb="173" eb="175">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarch実装例集</t>
@@ -2111,15 +1856,15 @@
     <rPh sb="11" eb="12">
       <t>シュウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>フォーマッタ機能の拡張</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>汎用データフォーマットの不具合対応に合わせて修正</t>
@@ -2135,7 +1880,7 @@
     <rPh sb="22" eb="24">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">汎用データフォーマットの不具合対応でNullableStringの動作が変更になったことに伴い、FormUrlEncodedデータフォーマッタを修正しました。
@@ -2152,15 +1897,15 @@
     <rPh sb="72" eb="74">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>デフォルトコンフィグレーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール送信バッチをマルチプロセスで動作するように変更</t>
@@ -2173,13 +1918,13 @@
     <rPh sb="24" eb="26">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-default-configuration
 1.0.4
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">メール送信バッチがマルチプロセスで動作するように、
@@ -2194,19 +1939,19 @@
     <rPh sb="57" eb="59">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-single-module-archetype/issues/4</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-default-configuration/issues/4</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>デフォルトコンフィグレーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchアプリケーションフレームワーク設定ガイド:デフォルト設定値からの設定変更方法:デフォルト設定一覧</t>
@@ -2216,11 +1961,11 @@
     <rPh sb="70" eb="72">
       <t>イチラン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">メール送信バッチのマルチプロセス対応に伴い、
@@ -2258,7 +2003,7 @@
     <rPh sb="87" eb="89">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>デフォルト設定一覧に、メール送信バッチのマルチプロセス用カラムの設定を追加</t>
@@ -2280,7 +2025,7 @@
     <rPh sb="35" eb="37">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール送信バッチがデフォルトでマルチプロセスで動作するように、
@@ -2303,11 +2048,11 @@
     <rPh sb="48" eb="50">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarchバッチプロジェクト</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">メール送信バッチをマルチプロセスで動作するように変更
@@ -2321,60 +2066,60 @@
     <rPh sb="24" eb="26">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-batch
 1.2.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-web
 1.3.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-mail-sender
 1.1.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-web-tag
 1.0.5</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-dataformat
 1.0.3</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-validation-ee
 1.0.5</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-batch-archetype
 5u8</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-biz-sample-all/issues/3</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-biz-sample-all
 5u8</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-document/issues/31</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-document
 5u8</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Example</t>
@@ -2425,13 +2170,13 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>不具合の
 起因バージョン
 （※2）</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーション
@@ -2440,7 +2185,7 @@
     <rPh sb="11" eb="13">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>FBシステム
@@ -2449,32 +2194,32 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0
 (5u6)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u6
 (5u6)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0
 (1.0.0)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0
 (1.1.0)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0
 (1.1.0)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">固定長/可変長のマルチレイアウトを使用し、識別項目のデフォルト値を指定した場合でも、レイアウトの識別項目がnullの場合にNullPointerExceptionが発生していました。これを、識別項目がnullの場合は例外を送出するのではなく、デフォルト値にマッチするレイアウトで実行するように修正しました。
@@ -2533,15 +2278,15 @@
     <rPh sb="146" eb="148">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch/nablarch-document/issues/41</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-document/issues/42</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">概要欄の通り、例外が送出されなくなりました。アプリケーションで例外をハンドリングしている場合は、処理を見直してください。
@@ -2656,15 +2401,15 @@
     <rPh sb="322" eb="323">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:データベースアクセス:ユニバーサルDAO:現在のトランザクションとは異なるトランザクションで実行する</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ユニバーサルDAO</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>「現在のトランザクションとは異なるトランザクションで実行する」の実装例の誤りを修正</t>
@@ -2680,11 +2425,11 @@
     <rPh sb="39" eb="41">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarchアプリケーションフレームワーク設定ガイド</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>文字集合の包含関係を表す図の誤りを修正</t>
@@ -2700,7 +2445,7 @@
     <rPh sb="17" eb="19">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">UniversalDao.Transactionを継承したクラスを呼び出す実装例で、doTransactionメソッドを呼び出していますが、明示的にdoTransactionメソッドを呼び出す必要がありませんでした。（呼び出すと2回実行されます）
@@ -2721,7 +2466,7 @@
     <rPh sb="158" eb="160">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>文字集合の包含関係を表す図で、「ASCII記号」が「半角英数」の直下に含まれていますが、正しくは「ASCII文字」の直下になります。</t>
@@ -2731,40 +2476,24 @@
     <rPh sb="12" eb="13">
       <t>ズ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク:Nablarchアプリケーションフレームワーク設定ガイド:デフォルト設定値からの設定変更方法:利用可能文字の追加手順:利用可能な文字集合定義:文字集合の包含関係
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3056,7 +2785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -3068,7 +2797,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3106,204 +2835,195 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="標準 2 2 2" xfId="4"/>
-    <cellStyle name="標準 2 2 2 2" xfId="9"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="17"/>
-    <cellStyle name="標準 2 2 2 3" xfId="13"/>
-    <cellStyle name="標準 2 2 3" xfId="7"/>
-    <cellStyle name="標準 2 2 3 2" xfId="15"/>
-    <cellStyle name="標準 2 2 4" xfId="11"/>
-    <cellStyle name="標準 2 3" xfId="3"/>
-    <cellStyle name="標準 2 3 2" xfId="8"/>
-    <cellStyle name="標準 2 3 2 2" xfId="16"/>
-    <cellStyle name="標準 2 3 3" xfId="12"/>
-    <cellStyle name="標準 2 4" xfId="6"/>
-    <cellStyle name="標準 2 4 2" xfId="14"/>
-    <cellStyle name="標準 2 5" xfId="10"/>
-    <cellStyle name="標準 3" xfId="5"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準 2 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="標準 2 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="標準 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3347,6 +3067,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3368,7 +3091,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3568,7 +3297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3610,7 +3339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3643,9 +3372,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3678,6 +3424,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3853,370 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4227,12 +3627,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="27" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="27" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -4244,1289 +3644,1289 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="7" customFormat="1" ht="19.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:125" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="AO3" s="7"/>
+      <c r="DU3" s="8"/>
+    </row>
+    <row r="4" spans="1:125" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+    </row>
+    <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:125" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="O7" s="29"/>
     </row>
-    <row r="2" spans="1:125" s="8" customFormat="1" ht="19.5">
-      <c r="A2" s="15" t="s">
+    <row r="8" spans="1:125" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:125" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="21">
+        <v>13939</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="21">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="29"/>
+    </row>
+    <row r="11" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="21">
+        <v>5</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="1:125" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="21">
+        <v>6</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:125" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="21">
+        <v>7</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="1:125" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="21">
+        <v>8</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:125" s="9" customFormat="1" ht="324" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="21">
+        <v>9</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:125" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="21">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="21">
+        <v>11</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="21">
+        <v>14687</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="21">
+        <v>12</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="21">
+        <v>13</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="21">
+        <v>14731</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="21">
+        <v>14</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="29"/>
+    </row>
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="21">
+        <v>15</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" s="29"/>
+    </row>
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="21">
+        <v>16</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="29"/>
+    </row>
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="21">
+        <v>17</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="21">
+        <v>14688</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="21">
+        <v>18</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="29"/>
+    </row>
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="21">
+        <v>19</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" s="21">
+        <v>14802</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" s="29"/>
+    </row>
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="21">
+        <v>20</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="21">
+        <v>14803</v>
+      </c>
+      <c r="N26" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" s="29"/>
+    </row>
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A27" s="41"/>
+      <c r="B27" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="21">
+        <v>21</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" s="29"/>
+    </row>
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="21">
+        <v>22</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="29"/>
+    </row>
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A29" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="29"/>
+    </row>
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="21">
+        <v>23</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O30" s="29"/>
+    </row>
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="21">
+        <v>24</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="O31" s="29"/>
     </row>
-    <row r="3" spans="1:125" s="9" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="AO3" s="10"/>
-      <c r="DU3" s="11"/>
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="21">
+        <v>25</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" s="29"/>
     </row>
-    <row r="4" spans="1:125" s="2" customFormat="1">
-      <c r="A4" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="K4" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>87</v>
-      </c>
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="21">
+        <v>26</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O33" s="29"/>
     </row>
-    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A34" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="29"/>
     </row>
-    <row r="6" spans="1:125" ht="21">
-      <c r="A6" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:125" s="12" customFormat="1" ht="108">
-      <c r="A7" s="14"/>
-      <c r="B7" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="24">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:125" s="12" customFormat="1" ht="144">
-      <c r="A8" s="14"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="24">
-        <v>2</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:125" s="12" customFormat="1" ht="132">
-      <c r="A9" s="14"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="24">
-        <v>3</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="M9" s="24">
-        <v>13939</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="O9" s="32"/>
-    </row>
-    <row r="10" spans="1:125" s="12" customFormat="1" ht="108">
-      <c r="A10" s="14"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="24">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="32"/>
-    </row>
-    <row r="11" spans="1:125" s="12" customFormat="1" ht="72">
-      <c r="A11" s="14"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="24">
-        <v>5</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="32"/>
-    </row>
-    <row r="12" spans="1:125" s="12" customFormat="1" ht="84">
-      <c r="A12" s="14"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="24">
-        <v>6</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="24" t="s">
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A35" s="37"/>
+      <c r="B35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="21">
+        <v>27</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="E35" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="O12" s="32"/>
-    </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="132">
-      <c r="A13" s="14"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="24">
-        <v>7</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="24" t="s">
+      <c r="G35" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="32"/>
-    </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="156">
-      <c r="A14" s="14"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="24">
-        <v>8</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="32"/>
-    </row>
-    <row r="15" spans="1:125" s="12" customFormat="1" ht="324">
-      <c r="A15" s="14"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="24">
-        <v>9</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="32"/>
-    </row>
-    <row r="16" spans="1:125" s="12" customFormat="1" ht="84">
-      <c r="A16" s="14"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="24">
-        <v>10</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="32"/>
-    </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="84">
-      <c r="A17" s="14"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="24">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="24">
-        <v>14687</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="96">
-      <c r="A18" s="14"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="24">
-        <v>12</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="K35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="84">
-      <c r="A19" s="14"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="24">
-        <v>13</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="24">
-        <v>14731</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A20" s="14"/>
-      <c r="B20" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="24">
-        <v>14</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" s="32"/>
-    </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A21" s="14"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="24">
-        <v>15</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="O21" s="32"/>
-    </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A22" s="14"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="24">
-        <v>16</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="O22" s="32"/>
-    </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A23" s="14"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="24">
-        <v>17</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" s="24">
-        <v>14688</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="96">
-      <c r="A24" s="14"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="24">
-        <v>18</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="108">
-      <c r="A25" s="14"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="24">
-        <v>19</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="M25" s="24">
-        <v>14802</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="96">
-      <c r="A26" s="14"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="24">
-        <v>20</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="M26" s="24">
-        <v>14803</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A27" s="44"/>
-      <c r="B27" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="24">
-        <v>21</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A28" s="43"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="24">
-        <v>22</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A29" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="32"/>
-    </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="96">
-      <c r="A30" s="14"/>
-      <c r="B30" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="24">
-        <v>23</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A31" s="14"/>
-      <c r="B31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="24">
-        <v>24</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="O31" s="32"/>
-    </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="96">
-      <c r="A32" s="14"/>
-      <c r="B32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="24">
-        <v>25</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" ht="96">
-      <c r="A33" s="14"/>
-      <c r="B33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="24">
-        <v>26</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A34" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A35" s="40"/>
-      <c r="B35" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="24">
-        <v>27</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="O35" s="32"/>
+      <c r="O35" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N24">
+  <autoFilter ref="A4:N24" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <sortState ref="C8:O16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:O16">
     <sortCondition descending="1" ref="L8:L16"/>
   </sortState>
   <mergeCells count="13">
@@ -5544,7 +4944,7 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="G34:G35">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>#REF!="完了"</formula>
@@ -5577,8 +4977,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5586,107 +4986,107 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>76</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
